--- a/DOM_Banner/output/dept0713/Clara N Curiel_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Clara N Curiel_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Boston University School of Medicine, Boston, Massachusetts; Department of Dermatology, Brigham and Women’s Hospital, Boston, Massachusetts; Department of Dermatology, Brigham and Women’s Hospital, Boston, Massachusetts; Harvard Medical School, Boston, Massachusetts; Department of Dermatology, Brigham and Women’s Hospital, Boston, Massachusetts; Department of Dermatology, Yale University School of Medicine, New Haven, Connecticut; Department of Dermatology, Oregon Health &amp; Science University, Portland, Oregon; Department of Anatomic Pathology, H. Lee Moffitt Cancer Center and Research Institute, Tampa, Florida; Department of Dermatology, Brigham and Women’s Hospital, Boston, Massachusetts; Harvard Medical School, Boston, Massachusetts; Department of Dermatology, Perelman School of Medicine at the University of Pennsylvania, Philadelphia, Pennsylvania; The University of Arizona Cancer Center, Tucson, Arizona; Department of Dermatology, Vanderbilt University Medical Center, Nashville, Tennessee; Department of Dermatology, Nashville VA Medical Centers, Nashville, Tennessee; Department of Dermatology, Vanderbilt University Medical Center, Nashville, Tennessee; Department of Dermatology, Oregon Health &amp; Science University, Portland, Oregon; University of Iowa Carver College of Medicine, Iowa City, Iowa; Department of Dermatology and Huntsman Cancer Institute, University of Utah Health Sciences Center, Salt Lake City, Utah; Stanford University School of Medicine, Stanford, California; Department of Cancer Epidemiology, H. Lee Moffitt Cancer Center and Research Institute, Tampa, Florida; Department of Dermatology, Yale University School of Medicine, New Haven, Connecticut; The Ronald O. Perelman Department of Dermatology, NYU Grossman School of Medicine, New York, New York; Department of Pathology, Brigham and Women's Hospital, Harvard Medical School, Boston, Massachusetts; Department of Dermatology, Brigham and Women’s Hospital, Boston, Massachusetts; Departments of Dermatology and Pathology, University of Iowa Hospitals &amp; Clinics, Iowa City, Iowa; Department of Dermatology and Huntsman Cancer Institute, University of Utah Health Sciences Center, Salt Lake City, Utah; University of Virginia, Charlottesville, Virginia; University of Iowa Carver College of Medicine, Iowa City, Iowa; Division of Dermatology, The University of Arizona College of Medicine, Tucson, Arizona; Department of Dermatology, Yale University School of Medicine, New Haven, Connecticut; Department of Dermatology, University of Iowa Hospitals &amp; Clinics, Iowa City, Iowa; Department of Dermatology, Perelman School of Medicine at the University of Pennsylvania, Philadelphia, Pennsylvania; Department of Dermatology and Huntsman Cancer Institute, University of Utah Health Sciences Center, Salt Lake City, Utah; The Ronald O. Perelman Department of Dermatology, NYU Grossman School of Medicine, New York, New York; Inova Melanoma and Skin Cancer Center, Inova Schar Cancer Institute, Fairfax, Virginia; University of Virginia School of Medicine, Charlottesville, Virginia; Department of Internal Medicine, University of Iowa Hospitals &amp; Clinics, Iowa City, Iowa; Department of Dermatology/Pigmented Lesion and Melanoma Program, Stanford University Medical Center and Cancer Institute, Palo Alto, California; Knight Cancer Institute at Oregon Health &amp; Science University, Portland, Oregon; Department of Dermatology/Pigmented Lesion and Melanoma Program, Stanford University Medical Center and Cancer Institute, Palo Alto, California; Dermatology Service, Veterans Affairs Palo Alto Health Care System, Palo Alto, California; Department of Dermatology, Brigham and Women’s Hospital, Boston, Massachusetts; Department of Dermatology, VA Integrated Service Network (VISN-1), Jamaica Plain, Massachusetts; Harvard Medical School, Boston, Massachusetts</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283163696</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Delays in melanoma presentation during the COVID-19 pandemic: A nationwide multi-institutional cohort study</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-11-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Journal of the American Academy of Dermatology</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaad.2022.06.031</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35738513</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaad.2022.06.031</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4282837212</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Navigating the initial diagnosis and management of adult IgA vasculitis: A review</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>JAAD International</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jdin.2022.05.004</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35721303</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jdin.2022.05.004</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Dermatology Service Memorial Sloan Kettering  New York New York USA; Icahn School of Medicine at Mount Sinai  New York New York USA; Chelsea and Westminster Hospital  London UK; Dermatology Service Memorial Sloan Kettering  New York New York USA; Rutgers New Jersey Medical School  Newark New Jersey USA; Dermatology Research Centre The University of Queensland Diamantina Institute  Brisbane Queensland Australia; Division of Dermatology University of Arizona Skin College of Medicine  Tucson Arizona USA; Dermatology Service Memorial Sloan Kettering  New York New York USA; Dermatology Service Memorial Sloan Kettering  New York New York USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4282004794</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Digital skin imaging applications, part I: Assessment of image acquisition technique features</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-06-02</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Skin Research and Technology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/srt.13163</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35652379</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/srt.13163</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,39 +713,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>University of Arizona Cancer Center, Tucson, AZ;; Banner University of Arizona, Tucson, AZ;; Department of Biostatistics, University of Arizona, Tucson, AZ;; University of Arizona, Tucson, AZ;; University of Arizona, Tucson, AZ;; University of Arizona Cancer Center, Tucson, AZ;</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281765290</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>A single arm phase 2 study of talimogene laherparepvec in patients with low-risk invasive cutaneous squamous cell cancer. interim analysis.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.16_suppl.e21583</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.16_suppl.e21583</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,39 +800,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>University of Arizona Cancer Center, University of Arizona, Tucson, Arizona, USA.; University of Arizona Cancer Center, University of Arizona, Tucson, Arizona, USA.; University of Arizona Cancer Center, University of Arizona, Tucson, Arizona, USA.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4296322738</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Review: PD‐L1 as an emerging target in the treatment and prevention of keratinocytic skin cancer</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-09-19</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Molecular Carcinogenesis</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Wiley</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/mc.23464</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -815,35 +840,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36121318</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/mc.23464</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Dermatology Service, Memorial Sloan Kettering  New York New York USA; Icahn School of Medicine at Mount Sinai  New York New York USA; Chelsea and Westminster Hospital  London UK; Dermatology Service, Memorial Sloan Kettering  New York New York USA; Dermatology Service, Memorial Sloan Kettering  New York New York USA; Rutgers New Jersey Medical School  Newark New Jersey USA; Dermatology Research Centre Diamantina Institute The University of Queensland  Brisbane QLD Australia; Division of Dermatology University of Arizona Skin College of Medicine  Tucson Arizona USA; Dermatology Service, Memorial Sloan Kettering  New York New York USA; Dermatology Service, Memorial Sloan Kettering  New York New York USA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4298326590</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Digital skin imaging applications, part II: a comprehensive survey of post‐acquisition image utilization features and technology standards</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-10-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Skin Research and Technology</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/srt.13195</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36181365</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/srt.13195</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -934,80 +969,85 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Victor H. Ruíz, David Encinas-Basurto, Bo Sun, Basanth Babu Eedara, Sally E. Dickinson, Georg T. Wondrak, H.‐H. Sherry Chow, Clara Curiel‐Lewandrowski, Heidi M. Mansour</t>
+          <t>Víctor H. Ruiz, David Encinas-Basurto, Bo Sun, Basanth Babu Eedara, Sally E. Dickinson, Georg T. Wondrak, H.‐H. Sherry Chow, Clara Curiel‐Lewandrowski, Heidi M. Mansour</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Department of Pharmacology and Toxicology, The University of Arizona College of Pharmacy, Tucson, AZ 85721, USA; Department of Pharmacology and Toxicology, The University of Arizona College of Pharmacy, Tucson, AZ 85721, USA; Department of Pharmacology and Toxicology, The University of Arizona College of Pharmacy, Tucson, AZ 85721, USA; Center for Translational Science, Florida Interational University, Port St. Lucie, FL 34987, USA; Department of Pharmacology and Toxicology, The University of Arizona College of Pharmacy, Tucson, AZ 85721, USA; Department of Pharmacology, The University of Arizona College of Medicine, Tucson, AZ 85724, USA; Department of Pharmacology and Toxicology, The University of Arizona College of Pharmacy, Tucson, AZ 85721, USA; University of Arizona Cancer Center, University of Arizona, Tucson, AZ 85724, USA; University of Arizona Cancer Center, University of Arizona, Tucson, AZ 85724, USA; Center for Translational Science, Florida Interational University, Port St. Lucie, FL 34987, USA; Department of Medicine, Division of Translational &amp; Regenerative Medicine, The University of Arizona College of Medicine, Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220849264</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Design, Physicochemical Characterization, and In Vitro Permeation of Innovative Resatorvid Topical Formulations for Targeted Skin Drug Delivery</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-03-24</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Pharmaceutics</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/pharmaceutics14040700</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35456534</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/pharmaceutics14040700</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,39 +1061,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Department of Surgery, Memorial Sloan Kettering Cancer Center, New York, NY, USA. bartlete@mskcc.org.; Department of Dermatology and Huntsman Cancer Institute, Salt Lake City, USA; Department of Dermatology, Pigmented Lesion and Melanoma Program, Stanford University Medical Center and Cancer Institute, Stanford, USA; Department of Dermatology and Knight Cancer Institute, Oregon Health &amp; Science University, Portland, USA; Department of Dermatology and University of Arizona Cancer Center Skin Cancer Institute, University of Arizona, Tucson, USA; Dermatology Service, Department of Medicine, Memorial Sloan Kettering Cancer Center, New York, USA; Department of Surgical Oncology, The University of Texas MD Anderson Cancer Center, Houston, USA; Department of Internal Medicine and UPMC Hillman Cancer Center, University of Pittsburgh, Pittsburgh, USA; Department of Epidemiology and Biostatistics, Memorial Sloan Kettering Cancer Center, New York, USA; Department of Epidemiology and Biostatistics, Memorial Sloan Kettering Cancer Center, New York, USA; Dermatology Service, Department of Medicine, Memorial Sloan Kettering Cancer Center, New York, USA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4280556355</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Clinically Significant Risk Thresholds in the Management of Primary Cutaneous Melanoma: A Survey of Melanoma Experts</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-05-18</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Annals of Surgical Oncology</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1245/s10434-022-11869-7</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1061,35 +1101,40 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35583689</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1245/s10434-022-11869-7</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,39 +1148,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4210871261</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Intralesional Bleomycin Combined With Cryotherapy in the Treatment of Recalcitrant Verruca Vulgaris</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Journal of Drugs in Dermatology</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>SanovaWorks</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.36849/jdd.6424</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1143,35 +1188,40 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35133103</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.36849/jdd.6424</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,39 +1235,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Memorial Sloan Kettering Cancer Center; Department of Dermatology, Huntsman Cancer Institute, Salt Lake City, USA; Department of Dermatology, Pigmented Lesion and Melanoma Program, Dermatology Service, Stanford University Medical Center and Cancer Institute, Veterans Affairs Palo Alto Health Care System, Palo Alto, USA; Department of Dermatology, Knight Cancer Institute, Oregon Health &amp; Science University, Portland, USA; Department of Dermatology, University of Arizona Cancer Center Skin Cancer Institute, University of Arizona, Tucson, USA; Dermatology Service, Department of Medicine, Memorial Sloan Kettering Cancer Center, New York, USA; Department of Surgical Oncology, The University of Texas MD Anderson Cancer Center, Houston, USA; Department of Internal Medicine, UPMC Hillman Cancer Center, University of Pittsburgh, Pittsburgh, USA; Department of Epidemiology and Biostatistics, Memorial Sloan Kettering Cancer Center, New York, USA; Department of Epidemiology and Biostatistics, Memorial Sloan Kettering Cancer Center, New York, USA; Dermatology Service, Department of Medicine, Memorial Sloan Kettering Cancer Center, New York, USA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281554978</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>ASO Visual Abstract: Clinically Significant Risk Thresholds in the Management of Primary Cutaneous Melanoma: A Survey of Melanoma Experts</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-05-26</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Annals of Surgical Oncology</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1245/s10434-022-11903-8</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1225,35 +1275,40 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35616750</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1245/s10434-022-11903-8</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,75 +1322,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>University of Florida; University of Arizona, College of Medicine, Division of Dermatology; University of Arizona, College of Medicine, Division of Dermatology</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4295713349</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Vismodegib as a Treatment for Multiple Non-locally Advanced Basal Cell Carcinomas</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-09-12</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Skin</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>https://doi.org/10.25251/skin.6.5.13</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.25251/skin.6.5.13</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,39 +1409,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>College of Optical Sciences, University of Arizona,Tucson,USA; College of Optical Sciences, University of Arizona,Tucson,USA; University of Arizona,Dept. of Medicine,Tucson,USA; College of Optical Sciences, University of Arizona,Dept. of Medical Imaging,Tucson,USA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310502457</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Transparent Gellan Gum as an Efficient Coupling Media For Photoacoustic Imaging Applications</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-10-10</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2022 IEEE International Ultrasonics Symposium (IUS)</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1109/ius54386.2022.9958558</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1389,35 +1449,40 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/ius54386.2022.9958558</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,39 +1496,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>1Department of Basic Medical Sciences, University of Arizona College of Medicine Phoenix, Phoenix, AZ;; 1Department of Basic Medical Sciences, University of Arizona College of Medicine Phoenix, Phoenix, AZ;; 2School of Life Sciences, Arizona State University, Tempe, AZ;; 2School of Life Sciences, Arizona State University, Tempe, AZ;; 3Department of Medicine, University of Arizona College of Medicine Tucson, Tucson, AZ;; 3Department of Medicine, University of Arizona College of Medicine Tucson, Tucson, AZ;; 3Department of Medicine, University of Arizona College of Medicine Tucson, Tucson, AZ;; 4BIO5 Institute, University of Arizona, Tucson, AZ.; 1Department of Basic Medical Sciences, University of Arizona College of Medicine Phoenix, Phoenix, AZ;</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310524393</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Abstract A006: Shared gene expression and immune pathway changes associated with progression from nevi to melanoma</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Cancer Prevention Research</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>American Association for Cancer Research</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1940-6215.tacpad22-a006</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1471,35 +1536,40 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1940-6215.tacpad22-a006</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1513,39 +1583,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>1Department of Basic Medical Sciences, University of Arizona College of Medicine Phoenix, Phoenix, AZ;; 1Department of Basic Medical Sciences, University of Arizona College of Medicine Phoenix, Phoenix, AZ;; 2School of Life Sciences, Arizona State University, Tempe, AZ;; 2School of Life Sciences, Arizona State University, Tempe, AZ;; 3Department of Medicine, University of Arizona College of Medicine Tucson, Tucson, AZ;; 3Department of Medicine, University of Arizona College of Medicine Tucson, Tucson, AZ;; 3Department of Medicine, University of Arizona College of Medicine Tucson, Tucson, AZ;; 4BIO5 Institute, University of Arizona, Tucson, AZ; 1Department of Basic Medical Sciences, University of Arizona College of Medicine Phoenix, Phoenix, AZ;</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310525396</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Abstract A001: Shared gene expression and immune pathway changes associated with progression from nevi to melanoma</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Cancer Prevention Research</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>American Association for Cancer Research</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1940-6215.tacpad22-a001</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1553,35 +1623,40 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1940-6215.tacpad22-a001</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Clara N Curiel_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Clara N Curiel_2022.xlsx
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nicole Trepanowski, Michael S. Chang, Guohai Zhou, Maham Ahmad, Elizabeth Berry, Katherine Bui, W. H. Butler, Emily Y. Chu, Clara Curiel‐Lewandrowski, Laura E. Dellalana, Darrel L. Ellis, S. Caleb Freeman, Pavane L. Gorrepati, Douglas Grossman, Samvel Gyurdzhyan, Peter A. Kanetsky, A.O. King, Avani Kolla, Christine G. Lian, Jennifer Y. Lin, Vincent Liu, Annie Lowenthal, Kelly N McCoy, Ananya Munjal, Caitlyn N Myrdal, Sara Perkins, Jennifer G. Powers, Corinne Rauck, Tristan C Smart, Jennifer A. Stein, Suraj Venna, Madalyn E Walsh, Jennifer Y. Wang, Sancy A. Leachman, Susan M. Swetter, Rebecca I. Hartman</t>
+          <t>Nicole Trepanowski, Michael S. Chang, Guohai Zhou, Maham Ahmad, Elizabeth Berry, Katherine Bui, W. H. Butler, Emily Y. Chu, Clara Curiel‐Lewandrowski, Laura E. Dellalana, Darrel L. Ellis, S. Caleb Freeman, Pavane L. Gorrepati, Douglas Grossman, Samvel Gyurdzhyan, Peter A. Kanetsky, Amanda R. King, Avani Kolla, Christine G. Lian, Jennifer Y. Lin, Vincent Liu, Annie Lowenthal, Kelly N McCoy, Ananya Munjal, Caitlyn N Myrdal, Sara Perkins, Jennifer G. Powers, Corinne Rauck, Tristan C Smart, Jennifer A. Stein, Suraj S. Venna, Madalyn E Walsh, Jennifer Y. Wang, Sancy A. Leachman, Susan M. Swetter, Rebecca I. Hartman</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -534,47 +534,47 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brenna G. Kelly, Delaney B. Stratton, Iyad Mansour, Bekir Tanrıöver, Keliegh S. Culpepper, Clara Curiel‐Lewandrowski</t>
+          <t>Mary Sun, Jonathan Kentley, Britney W. Wilson, H. Peter Soyer, Clara Curiel‐Lewandrowski, Veronica Rotemberg, Allan C. Halpern</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; </t>
+          <t>Dermatology Service Memorial Sloan Kettering  New York New York USA; Icahn School of Medicine at Mount Sinai  New York New York USA; Chelsea and Westminster Hospital  London UK; Dermatology Service Memorial Sloan Kettering  New York New York USA; Rutgers New Jersey Medical School  Newark New Jersey USA; Dermatology Research Centre The University of Queensland Diamantina Institute  Brisbane Queensland Australia; Division of Dermatology University of Arizona Skin College of Medicine  Tucson Arizona USA; Dermatology Service Memorial Sloan Kettering  New York New York USA; Dermatology Service Memorial Sloan Kettering  New York New York USA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4282837212</t>
+          <t>https://openalex.org/W4282004794</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Navigating the initial diagnosis and management of adult IgA vasculitis: A review</t>
+          <t>Digital skin imaging applications, part I: Assessment of image acquisition technique features</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2022-09-01</t>
+          <t>2022-06-02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>JAAD International</t>
+          <t>Skin Research and Technology</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Wiley-Blackwell</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jdin.2022.05.004</t>
+          <t>https://doi.org/10.1111/srt.13163</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -604,12 +604,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/35721303</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35652379</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jdin.2022.05.004</t>
+          <t>https://doi.org/10.1111/srt.13163</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -621,47 +621,47 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mary Sun, Jonathan Kentley, Britney W. Wilson, H. Peter Soyer, Clara Curiel‐Lewandrowski, Veronica Rotemberg, Allan C. Halpern</t>
+          <t>Brenna G. Kelly, Delaney B. Stratton, Iyad Mansour, Bekir Tanrıöver, Keliegh S. Culpepper, Clara Curiel‐Lewandrowski</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dermatology Service Memorial Sloan Kettering  New York New York USA; Icahn School of Medicine at Mount Sinai  New York New York USA; Chelsea and Westminster Hospital  London UK; Dermatology Service Memorial Sloan Kettering  New York New York USA; Rutgers New Jersey Medical School  Newark New Jersey USA; Dermatology Research Centre The University of Queensland Diamantina Institute  Brisbane Queensland Australia; Division of Dermatology University of Arizona Skin College of Medicine  Tucson Arizona USA; Dermatology Service Memorial Sloan Kettering  New York New York USA; Dermatology Service Memorial Sloan Kettering  New York New York USA</t>
+          <t xml:space="preserve">; ; ; ; ; </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4282004794</t>
+          <t>https://openalex.org/W4282837212</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Digital skin imaging applications, part I: Assessment of image acquisition technique features</t>
+          <t>Navigating the initial diagnosis and management of adult IgA vasculitis: A review</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2022-06-02</t>
+          <t>2022-09-01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skin Research and Technology</t>
+          <t>JAAD International</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Wiley-Blackwell</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/srt.13163</t>
+          <t>https://doi.org/10.1016/j.jdin.2022.05.004</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/35652379</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35721303</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/srt.13163</t>
+          <t>https://doi.org/10.1016/j.jdin.2022.05.004</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
